--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_lexical_density.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_lexical_density.xlsx
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.4380228136882129</v>
+        <v>0.5421002838221382</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4347826086956522</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -944,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.4838709677419355</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -960,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4871794871794872</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -968,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5294117647058824</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -976,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -984,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.4845814977973568</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -992,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.5454545454545454</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1049,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.5909090909090909</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.4285714285714285</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.4536082474226804</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.4615384615384616</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.4285714285714285</v>
+        <v>0.4677419354838709</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1126,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.4736842105263158</v>
+        <v>0.5142857142857142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.4772727272727273</v>
+        <v>0.5080645161290323</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.4831460674157304</v>
+        <v>0.5341614906832298</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.5185185185185185</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>0.4571428571428571</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>0.53125</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>0.4444444444444444</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>32</v>
       </c>
       <c r="B14">
-        <v>0.4411764705882353</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>0.4907407407407408</v>
+        <v>0.5408163265306123</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>0.68</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>0.5483870967741935</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>0.5185185185185185</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>37</v>
       </c>
       <c r="B19">
-        <v>0.4516129032258064</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>0.5217391304347826</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>0.48</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>0.5789473684210527</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>0.5909090909090909</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <v>0.6086956521739131</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>44</v>
       </c>
       <c r="B26">
-        <v>0.4642857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>45</v>
       </c>
       <c r="B27">
-        <v>0.3571428571428572</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>47</v>
       </c>
       <c r="B29">
-        <v>0.5833333333333334</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>48</v>
       </c>
       <c r="B30">
-        <v>0.5217391304347826</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>49</v>
       </c>
       <c r="B31">
-        <v>0.4642857142857143</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1419,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1427,7 +1427,7 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>0.45</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1435,7 +1435,7 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1443,7 +1443,7 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>0.6818181818181818</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1451,7 +1451,7 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1467,7 +1467,7 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1475,7 +1475,7 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1483,7 +1483,7 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>0.5352112676056338</v>
+        <v>0.5846153846153846</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1491,7 +1491,7 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>0.5185185185185185</v>
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1499,7 +1499,7 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>0.5652173913043478</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1507,7 +1507,7 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>0.4666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1515,7 +1515,7 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>0.52</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1523,7 +1523,7 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1531,7 +1531,7 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>0.5789473684210527</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1539,7 +1539,7 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1547,7 +1547,7 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>0.5769230769230769</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1555,7 +1555,7 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>0.6363636363636364</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1563,7 +1563,7 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>0.4761904761904762</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1571,7 +1571,7 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>0.5217391304347826</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1579,7 +1579,7 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>0.4452122408687068</v>
+        <v>0.5040091638029782</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1587,7 +1587,7 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1603,7 +1603,7 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>0.5357142857142857</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>0.3157894736842105</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>0.5652173913043478</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>0.4181818181818182</v>
+        <v>0.4791666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>0.4838709677419355</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>0.4230769230769231</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>0.4325396825396826</v>
+        <v>0.4780701754385965</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>0.68</v>
+        <v>0.7391304347826086</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>0.4782608695652174</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>0.5600000000000001</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>0.48</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>0.4411764705882353</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>0.5416666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>0.5068027210884354</v>
+        <v>0.5758754863813229</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>0.5161290322580645</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>0.4782608695652174</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>0.5172413793103449</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>100</v>
       </c>
       <c r="B52">
-        <v>0.3666666666666666</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>101</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>102</v>
       </c>
       <c r="B54">
-        <v>0.4482758620689655</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1843,7 +1843,7 @@
         <v>103</v>
       </c>
       <c r="B55">
-        <v>0.5625</v>
+        <v>0.6279069767441861</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>104</v>
       </c>
       <c r="B56">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>105</v>
       </c>
       <c r="B57">
-        <v>0.4666666666666667</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>106</v>
       </c>
       <c r="B58">
-        <v>0.4571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>107</v>
       </c>
       <c r="B59">
-        <v>0.46875</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>108</v>
       </c>
       <c r="B60">
-        <v>0.6206896551724138</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>109</v>
       </c>
       <c r="B61">
-        <v>0.5</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>110</v>
       </c>
       <c r="B62">
-        <v>0.5555555555555556</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>111</v>
       </c>
       <c r="B63">
-        <v>0.4137931034482759</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>112</v>
       </c>
       <c r="B64">
-        <v>0.6296296296296297</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>113</v>
       </c>
       <c r="B65">
-        <v>0.5714285714285714</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>114</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2027,7 @@
         <v>115</v>
       </c>
       <c r="B2">
-        <v>0.4651162790697674</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>116</v>
       </c>
       <c r="B3">
-        <v>0.575</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>117</v>
       </c>
       <c r="B4">
-        <v>0.5454545454545454</v>
+        <v>0.6206896551724138</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>118</v>
       </c>
       <c r="B5">
-        <v>0.4905660377358491</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>119</v>
       </c>
       <c r="B6">
-        <v>0.4363636363636363</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>0.425531914893617</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>121</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.5681818181818182</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>122</v>
       </c>
       <c r="B9">
-        <v>0.4807692307692308</v>
+        <v>0.5319148936170213</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>123</v>
       </c>
       <c r="B10">
-        <v>0.4716981132075472</v>
+        <v>0.5319148936170213</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>124</v>
       </c>
       <c r="B11">
-        <v>0.4901960784313725</v>
+        <v>0.5813953488372093</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>125</v>
       </c>
       <c r="B12">
-        <v>0.5588235294117647</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>126</v>
       </c>
       <c r="B13">
-        <v>0.5849056603773585</v>
+        <v>0.6739130434782609</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>127</v>
       </c>
       <c r="B14">
-        <v>0.5849056603773585</v>
+        <v>0.6739130434782609</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>128</v>
       </c>
       <c r="B15">
-        <v>0.4333333333333333</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>129</v>
       </c>
       <c r="B16">
-        <v>0.4181818181818182</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>130</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.5952380952380952</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>131</v>
       </c>
       <c r="B18">
-        <v>0.3809523809523809</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>132</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>133</v>
       </c>
       <c r="B20">
-        <v>0.4912280701754386</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>134</v>
       </c>
       <c r="B21">
-        <v>0.459016393442623</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>135</v>
       </c>
       <c r="B22">
-        <v>0.4482758620689655</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>136</v>
       </c>
       <c r="B23">
-        <v>0.4705882352941176</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>137</v>
       </c>
       <c r="B24">
-        <v>0.3684210526315789</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>138</v>
       </c>
       <c r="B25">
-        <v>0.40625</v>
+        <v>0.4905660377358491</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>139</v>
       </c>
       <c r="B26">
-        <v>0.3421052631578947</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>140</v>
       </c>
       <c r="B27">
-        <v>0.4516129032258064</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>141</v>
       </c>
       <c r="B28">
-        <v>0.52</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>142</v>
       </c>
       <c r="B29">
-        <v>0.4081632653061225</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>143</v>
       </c>
       <c r="B30">
-        <v>0.4693877551020408</v>
+        <v>0.5227272727272727</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>144</v>
       </c>
       <c r="B31">
-        <v>0.4333333333333333</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
   </sheetData>
@@ -2344,22 +2344,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4380228136882129</v>
+        <v>0.5421002838221382</v>
       </c>
       <c r="E2">
-        <v>0.4380228136882129</v>
+        <v>0.5421002838221382</v>
       </c>
       <c r="F2">
-        <v>0.4380228136882129</v>
+        <v>0.5421002838221382</v>
       </c>
       <c r="G2">
-        <v>0.4380228136882129</v>
+        <v>0.5421002838221382</v>
       </c>
       <c r="H2">
-        <v>0.4380228136882129</v>
+        <v>0.5421002838221382</v>
       </c>
       <c r="I2">
-        <v>0.4380228136882129</v>
+        <v>0.5421002838221382</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2370,22 +2370,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="G3">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2396,25 +2396,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.4989447538241526</v>
+        <v>0.5958008993070913</v>
       </c>
       <c r="D4">
-        <v>0.07447565561065714</v>
+        <v>0.09863778565103141</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F4">
-        <v>0.4490927419354839</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="G4">
-        <v>0.485880492488422</v>
+        <v>0.5989974937343359</v>
       </c>
       <c r="H4">
-        <v>0.5270588235294118</v>
+        <v>0.6383928571428572</v>
       </c>
       <c r="I4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2425,25 +2425,25 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.473866442835515</v>
+        <v>0.5658533606105024</v>
       </c>
       <c r="D5">
-        <v>0.06066671613030928</v>
+        <v>0.0735237930442557</v>
       </c>
       <c r="E5">
-        <v>0.4285714285714285</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="F5">
-        <v>0.4348306332842415</v>
+        <v>0.528804347826087</v>
       </c>
       <c r="G5">
-        <v>0.457573354480571</v>
+        <v>0.5607142857142857</v>
       </c>
       <c r="H5">
-        <v>0.4753846153846154</v>
+        <v>0.5928571428571429</v>
       </c>
       <c r="I5">
-        <v>0.5909090909090909</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2454,25 +2454,25 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>0.514576644799165</v>
+        <v>0.5916060804676647</v>
       </c>
       <c r="D6">
-        <v>0.07319496039809582</v>
+        <v>0.08179361087439697</v>
       </c>
       <c r="E6">
-        <v>0.3571428571428572</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="F6">
-        <v>0.4666353383458647</v>
+        <v>0.5235403726708074</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0.5857142857142856</v>
       </c>
       <c r="H6">
-        <v>0.5441028225806451</v>
+        <v>0.6510989010989011</v>
       </c>
       <c r="I6">
-        <v>0.7058823529411765</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2483,25 +2483,25 @@
         <v>65</v>
       </c>
       <c r="C7">
-        <v>0.5140120528155504</v>
+        <v>0.5882856849723611</v>
       </c>
       <c r="D7">
-        <v>0.08000280243681945</v>
+        <v>0.09028897694491074</v>
       </c>
       <c r="E7">
-        <v>0.3157894736842105</v>
+        <v>0.35</v>
       </c>
       <c r="F7">
-        <v>0.4666666666666667</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G7">
-        <v>0.5068027210884354</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H7">
-        <v>0.5625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="I7">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2512,25 +2512,25 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>0.4725132581200616</v>
+        <v>0.5449878670178598</v>
       </c>
       <c r="D8">
-        <v>0.0636592636104084</v>
+        <v>0.07045243222197468</v>
       </c>
       <c r="E8">
-        <v>0.3421052631578947</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="F8">
-        <v>0.4333333333333333</v>
+        <v>0.5046296296296297</v>
       </c>
       <c r="G8">
-        <v>0.4699879951980792</v>
+        <v>0.5411036036036037</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.5828488372093024</v>
       </c>
       <c r="I8">
-        <v>0.5849056603773585</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_lexical_density.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_lexical_density.xlsx
@@ -11,17 +11,18 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="2013" sheetId="3" r:id="rId3"/>
     <sheet name="2014" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
-    <sheet name="Summary" sheetId="8" r:id="rId8"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="Summary" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="166">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -81,6 +82,42 @@
   </si>
   <si>
     <t>http://www.politifact.com/wisconsin/statements/2014/jul/02/state-democratic-party-wisconsin/wisconsin-sen-ron-johnson-largely-unknown-democrat/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/06/greg-abbott/greg-abbott-embarrassed-says-californians-buying-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/16/scott-walker/gov-scott-walker-says-board-wanted-accept-mickey-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/05/dana-loesch/Planned-parenthood-86-percent-abortion-revenue/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/23/donald-trump/hillary-clinton-obama-birther-fact-check/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/10/ted-cruz/ted-cruz-says-deal-will-facilitate-and-accelerate-/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/aug/26/hillary-clinton/hillary-clinton-says-no-gop-candidate-has-talked-a/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/21/wisconsin-state-afl-cio/wisconsin-afl-cio-says-scott-walker-budget-means-n/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/20/glenn-beck/glenn-beck-says-barack-obama-took-iran-hamas-us-te/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/08/ben-carson/ben-carson-said-no-one-who-signed-declaration-inde/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/07/dinesh-dsouza/hillary-clinton-confederate-battle-flag-nope-old-i/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jun/25/gavin-mcinnes/tweet-civil-war-was-about-secession-not-slavery/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/feb/06/scott-walker/despite-deliberate-actions-scott-walker-calls-chan/</t>
   </si>
   <si>
     <t>http://www.politifact.com/florida/statements/2016/aug/12/carlos-beruff/fbi-admitted-it-cannot-properly-vet-middle-eastern/</t>
@@ -1107,6 +1144,137 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.4090909090909091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0.4721485411140584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>0.4117647058823529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>0.6818181818181818</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1123,7 +1291,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0.5142857142857142</v>
@@ -1131,7 +1299,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.5080645161290323</v>
@@ -1139,7 +1307,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0.5341614906832298</v>
@@ -1147,7 +1315,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0.6363636363636364</v>
@@ -1155,7 +1323,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0.7333333333333333</v>
@@ -1163,7 +1331,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0.6428571428571429</v>
@@ -1171,7 +1339,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -1179,7 +1347,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0.5185185185185185</v>
@@ -1187,7 +1355,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>0.6153846153846154</v>
@@ -1195,7 +1363,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>0.68</v>
@@ -1203,7 +1371,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>0.48</v>
@@ -1211,7 +1379,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>0.5714285714285714</v>
@@ -1219,7 +1387,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0.5</v>
@@ -1227,7 +1395,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>0.5408163265306123</v>
@@ -1235,7 +1403,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>0.7619047619047619</v>
@@ -1243,7 +1411,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>0.6538461538461539</v>
@@ -1251,7 +1419,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>0.6086956521739131</v>
@@ -1259,7 +1427,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>0.5384615384615384</v>
@@ -1267,7 +1435,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>0.5714285714285714</v>
@@ -1275,7 +1443,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>0.5714285714285714</v>
@@ -1283,7 +1451,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>0.7096774193548387</v>
@@ -1291,7 +1459,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>0.6666666666666666</v>
@@ -1299,7 +1467,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>0.6666666666666666</v>
@@ -1307,7 +1475,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>0.7</v>
@@ -1315,7 +1483,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>0.6190476190476191</v>
@@ -1323,7 +1491,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>0.4347826086956522</v>
@@ -1331,7 +1499,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>0.52</v>
@@ -1339,7 +1507,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>0.6086956521739131</v>
@@ -1347,7 +1515,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>0.6</v>
@@ -1355,7 +1523,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>0.5416666666666666</v>
@@ -1398,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B66"/>
   <sheetViews>
@@ -1416,7 +1584,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1424,7 +1592,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>0.6923076923076923</v>
@@ -1432,7 +1600,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0.75</v>
@@ -1440,7 +1608,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0.75</v>
@@ -1448,7 +1616,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>0.5833333333333334</v>
@@ -1456,7 +1624,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0.35</v>
@@ -1464,7 +1632,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0.6666666666666666</v>
@@ -1472,7 +1640,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>0.4444444444444444</v>
@@ -1480,7 +1648,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>0.5846153846153846</v>
@@ -1488,7 +1656,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>0.5652173913043478</v>
@@ -1496,7 +1664,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>0.65</v>
@@ -1504,7 +1672,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0.5833333333333334</v>
@@ -1512,7 +1680,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>0.5714285714285714</v>
@@ -1520,7 +1688,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0.6666666666666666</v>
@@ -1528,7 +1696,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>0.6111111111111112</v>
@@ -1536,7 +1704,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>0.625</v>
@@ -1544,7 +1712,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>0.6521739130434783</v>
@@ -1552,7 +1720,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>0.7368421052631579</v>
@@ -1560,7 +1728,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>0.6666666666666666</v>
@@ -1568,7 +1736,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>0.5714285714285714</v>
@@ -1576,7 +1744,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>0.5040091638029782</v>
@@ -1584,7 +1752,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>0.5714285714285714</v>
@@ -1592,7 +1760,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>0.7</v>
@@ -1600,7 +1768,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B25">
         <v>0.6</v>
@@ -1608,7 +1776,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>0.6363636363636364</v>
@@ -1616,7 +1784,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>0.5833333333333334</v>
@@ -1624,7 +1792,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>0.4</v>
@@ -1632,7 +1800,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <v>0.5</v>
@@ -1640,7 +1808,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>0.6190476190476191</v>
@@ -1648,7 +1816,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>0.4791666666666667</v>
@@ -1656,7 +1824,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B32">
         <v>0.625</v>
@@ -1664,7 +1832,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B33">
         <v>0.625</v>
@@ -1672,7 +1840,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>0.7647058823529411</v>
@@ -1680,7 +1848,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>0.5238095238095238</v>
@@ -1688,7 +1856,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>0.4780701754385965</v>
@@ -1696,7 +1864,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B37">
         <v>0.7391304347826086</v>
@@ -1704,7 +1872,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>0.5238095238095238</v>
@@ -1712,7 +1880,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B39">
         <v>0.5600000000000001</v>
@@ -1720,7 +1888,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>0.5</v>
@@ -1728,7 +1896,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>0.6086956521739131</v>
@@ -1736,7 +1904,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B42">
         <v>0.5454545454545454</v>
@@ -1744,7 +1912,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B43">
         <v>0.5833333333333334</v>
@@ -1752,7 +1920,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>0.4642857142857143</v>
@@ -1760,7 +1928,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B45">
         <v>0.6190476190476191</v>
@@ -1768,7 +1936,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B46">
         <v>0.5758754863813229</v>
@@ -1776,7 +1944,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B47">
         <v>0.6153846153846154</v>
@@ -1784,7 +1952,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B48">
         <v>0.5789473684210527</v>
@@ -1792,7 +1960,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B49">
         <v>0.6153846153846154</v>
@@ -1800,7 +1968,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B50">
         <v>0.5416666666666666</v>
@@ -1808,7 +1976,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B51">
         <v>0.5769230769230769</v>
@@ -1816,7 +1984,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B52">
         <v>0.3928571428571428</v>
@@ -1824,7 +1992,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B53">
         <v>0.6086956521739131</v>
@@ -1832,7 +2000,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>0.5098039215686274</v>
@@ -1840,7 +2008,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B55">
         <v>0.6279069767441861</v>
@@ -1848,7 +2016,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B56">
         <v>0.6521739130434783</v>
@@ -1856,7 +2024,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B57">
         <v>0.5384615384615384</v>
@@ -1864,7 +2032,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B58">
         <v>0.5714285714285714</v>
@@ -1872,7 +2040,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B59">
         <v>0.5172413793103449</v>
@@ -1880,7 +2048,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B60">
         <v>0.72</v>
@@ -1888,7 +2056,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B61">
         <v>0.6086956521739131</v>
@@ -1896,7 +2064,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B62">
         <v>0.6521739130434783</v>
@@ -1904,7 +2072,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B63">
         <v>0.4444444444444444</v>
@@ -1912,7 +2080,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B64">
         <v>0.75</v>
@@ -1920,7 +2088,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B65">
         <v>0.6470588235294118</v>
@@ -1928,7 +2096,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B66">
         <v>0.5185185185185185</v>
@@ -2006,7 +2174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -2024,7 +2192,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>0.5405405405405406</v>
@@ -2032,7 +2200,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>0.6571428571428571</v>
@@ -2040,7 +2208,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>0.6206896551724138</v>
@@ -2048,7 +2216,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>0.5531914893617021</v>
@@ -2056,7 +2224,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>0.5454545454545454</v>
@@ -2064,7 +2232,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>0.4761904761904762</v>
@@ -2072,7 +2240,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>0.5681818181818182</v>
@@ -2080,7 +2248,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>0.5319148936170213</v>
@@ -2088,7 +2256,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>0.5319148936170213</v>
@@ -2096,7 +2264,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>0.5813953488372093</v>
@@ -2104,7 +2272,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>0.6785714285714286</v>
@@ -2112,7 +2280,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>0.6739130434782609</v>
@@ -2120,7 +2288,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>0.6739130434782609</v>
@@ -2128,7 +2296,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>0.52</v>
@@ -2136,7 +2304,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -2144,7 +2312,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>0.5952380952380952</v>
@@ -2152,7 +2320,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>0.4528301886792453</v>
@@ -2160,7 +2328,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>0.5882352941176471</v>
@@ -2168,7 +2336,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>0.5600000000000001</v>
@@ -2176,7 +2344,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>0.5185185185185185</v>
@@ -2184,7 +2352,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B22">
         <v>0.5416666666666666</v>
@@ -2192,7 +2360,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B23">
         <v>0.5217391304347826</v>
@@ -2200,7 +2368,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>0.4242424242424243</v>
@@ -2208,7 +2376,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B25">
         <v>0.4905660377358491</v>
@@ -2216,7 +2384,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B26">
         <v>0.4193548387096774</v>
@@ -2224,7 +2392,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B27">
         <v>0.5833333333333334</v>
@@ -2232,7 +2400,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B28">
         <v>0.5531914893617021</v>
@@ -2240,7 +2408,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B29">
         <v>0.4347826086956522</v>
@@ -2248,7 +2416,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B30">
         <v>0.5227272727272727</v>
@@ -2256,7 +2424,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B31">
         <v>0.4901960784313725</v>
@@ -2299,9 +2467,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2309,31 +2477,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2448,88 +2616,117 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0.5916060804676647</v>
+        <v>0.5267213059365695</v>
       </c>
       <c r="D6">
-        <v>0.08179361087439697</v>
+        <v>0.1126787829475633</v>
       </c>
       <c r="E6">
-        <v>0.4347826086956522</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="F6">
-        <v>0.5235403726708074</v>
+        <v>0.4352678571428572</v>
       </c>
       <c r="G6">
-        <v>0.5857142857142856</v>
+        <v>0.4860742705570292</v>
       </c>
       <c r="H6">
-        <v>0.6510989010989011</v>
+        <v>0.6</v>
       </c>
       <c r="I6">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>0.5882856849723611</v>
+        <v>0.5916060804676647</v>
       </c>
       <c r="D7">
-        <v>0.09028897694491074</v>
+        <v>0.08179361087439697</v>
       </c>
       <c r="E7">
-        <v>0.35</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="F7">
-        <v>0.5238095238095238</v>
+        <v>0.5235403726708074</v>
       </c>
       <c r="G7">
-        <v>0.5833333333333334</v>
+        <v>0.5857142857142856</v>
       </c>
       <c r="H7">
-        <v>0.6470588235294118</v>
+        <v>0.6510989010989011</v>
       </c>
       <c r="I7">
-        <v>0.7647058823529411</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>0.5882856849723611</v>
+      </c>
+      <c r="D8">
+        <v>0.09028897694491074</v>
+      </c>
+      <c r="E8">
+        <v>0.35</v>
+      </c>
+      <c r="F8">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="G8">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="I8">
+        <v>0.7647058823529411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.5449878670178598</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.07045243222197468</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.4193548387096774</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.5046296296296297</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>0.5411036036036037</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0.5828488372093024</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.6785714285714286</v>
       </c>
     </row>
